--- a/excel_with_subclasses/without_zeros/rapid_transit_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/rapid_transit_with_count_without_zeros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>subclass</t>
   </si>
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q1268865</t>
@@ -40,6 +40,9 @@
     <t>Q1425942</t>
   </si>
   <si>
+    <t>Q18092437</t>
+  </si>
+  <si>
     <t>Легкорельсовый транспорт</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>подземный трамвай</t>
+  </si>
+  <si>
+    <t>метрополитен США</t>
   </si>
   <si>
     <t>Q5503_метрополитен</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +444,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,13 +455,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +466,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,13 +477,21 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
